--- a/loss.xlsx
+++ b/loss.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="VGG" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CNN" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Inception" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="InceptionRed" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t xml:space="preserve">run0</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red_time</t>
   </si>
 </sst>
 </file>
@@ -172,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +194,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,7 +273,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -698,11 +706,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="67910796"/>
-        <c:axId val="8164323"/>
+        <c:axId val="63417413"/>
+        <c:axId val="85735097"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67910796"/>
+        <c:axId val="63417413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +738,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8164323"/>
+        <c:crossAx val="85735097"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8164323"/>
+        <c:axId val="85735097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +783,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67910796"/>
+        <c:crossAx val="63417413"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -823,7 +831,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -940,11 +948,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82787770"/>
-        <c:axId val="86871895"/>
+        <c:axId val="88000155"/>
+        <c:axId val="4959056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82787770"/>
+        <c:axId val="88000155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +980,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86871895"/>
+        <c:crossAx val="4959056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86871895"/>
+        <c:axId val="4959056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1025,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82787770"/>
+        <c:crossAx val="88000155"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1086,8 +1094,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="932760" y="2005920"/>
-        <a:ext cx="5768280" cy="3239280"/>
+        <a:off x="934200" y="2005920"/>
+        <a:ext cx="5776560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1106,9 +1114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
+      <xdr:colOff>450360</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1116,8 +1124,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6912360" y="2034720"/>
-        <a:ext cx="5768280" cy="3239280"/>
+        <a:off x="6922440" y="2034720"/>
+        <a:ext cx="5776920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1141,7 +1149,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1218,7 +1226,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.96"/>
   </cols>
@@ -1294,11 +1302,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -1515,4 +1523,143 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>512.4873</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>513.5563</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>499.369</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>500.4549</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>13.11827</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>13.10146</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>509.9396</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>510.8158</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/loss.xlsx
+++ b/loss.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t xml:space="preserve">run0</t>
   </si>
@@ -73,7 +73,19 @@
     <t xml:space="preserve">repeat</t>
   </si>
   <si>
+    <t xml:space="preserve">run7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run9</t>
+  </si>
+  <si>
     <t xml:space="preserve">red_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel_inc</t>
   </si>
 </sst>
 </file>
@@ -254,7 +266,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
@@ -266,14 +278,14 @@
       <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF4B1F6F"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -706,11 +718,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="63417413"/>
-        <c:axId val="85735097"/>
+        <c:axId val="83331889"/>
+        <c:axId val="43457763"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63417413"/>
+        <c:axId val="83331889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85735097"/>
+        <c:crossAx val="43457763"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85735097"/>
+        <c:axId val="43457763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63417413"/>
+        <c:crossAx val="83331889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -831,7 +843,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -948,11 +960,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88000155"/>
-        <c:axId val="4959056"/>
+        <c:axId val="82199522"/>
+        <c:axId val="85813874"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88000155"/>
+        <c:axId val="82199522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +992,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4959056"/>
+        <c:crossAx val="85813874"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -988,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4959056"/>
+        <c:axId val="85813874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88000155"/>
+        <c:crossAx val="82199522"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,6 +1079,1319 @@
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>run0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>run1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>run2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>run3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>run4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>run5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>run6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>run7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>run8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>run9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>512.4873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513.5563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.2761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520.0116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517.8065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>511.9134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>591.8564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.1489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>511.9963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="31923838"/>
+        <c:axId val="54502590"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="31923838"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54502590"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54502590"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31923838"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>run0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>run1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>run2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>run3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>run4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>run5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>run6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>run7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>run8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>run9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$B$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>509.9396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510.8158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>509.7052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515.7691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514.0338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510.1428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>592.4453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>509.7514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>509.5406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="23965998"/>
+        <c:axId val="39878345"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="23965998"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39878345"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39878345"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23965998"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$B$7,InceptionRed!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>512.4873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>509.9396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$C$7,InceptionRed!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>513.5563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510.8158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$D$7,InceptionRed!$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>512.2761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>509.7052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$E$7,InceptionRed!$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>520.0116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515.7691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$F$7,InceptionRed!$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>517.8065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514.0338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$G$7,InceptionRed!$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>511.9134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510.1428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$H$7,InceptionRed!$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>512.0872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$J$7,InceptionRed!$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>512.1489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>509.7514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>InceptionRed!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>InceptionRed!$A$7,InceptionRed!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>loss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>InceptionRed!$K$7,InceptionRed!$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>511.9963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>509.5406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="47496285"/>
+        <c:axId val="53124567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="47496285"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53124567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53124567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47496285"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1138,6 +2463,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="2369520"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5715720" y="2484360"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="5888520"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1303,7 +2723,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1530,10 +2950,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1545,8 +2965,29 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,6 +3003,27 @@
       <c r="D2" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -1573,22 +3035,64 @@
       <c r="C3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,54 +3108,206 @@
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>512.4873</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>513.5563</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>499.369</v>
+        <v>512.4873</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>500.4549</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>513.5563</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>512.2761</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>520.0116</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>517.8065</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>511.9134</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>512.0872</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>591.8564</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>512.1489</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>511.9963</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>499.369</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>500.4549</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>499.1898</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>506.6555</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>504.4991</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>499.0621</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>499.1616</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>591.8562</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>499.2737</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>498.8311</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>13.11827</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>13.10146</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D9" s="0" t="n">
+        <v>13.08627</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>13.35608</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>13.30734</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>12.85131</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>12.92559</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">231.83*10^-6</f>
+        <v>0.00023183</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>12.87516</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>13.16515</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>509.9396</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <v>510.8158</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D11" s="0" t="n">
+        <v>509.7052</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>515.7691</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>514.0338</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>510.1428</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>510.56</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>592.4453</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>509.7514</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>509.5406</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1661,5 +3317,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/loss.xlsx
+++ b/loss.xlsx
@@ -285,7 +285,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -718,11 +718,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83331889"/>
-        <c:axId val="43457763"/>
+        <c:axId val="82480431"/>
+        <c:axId val="80737955"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83331889"/>
+        <c:axId val="82480431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43457763"/>
+        <c:crossAx val="80737955"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43457763"/>
+        <c:axId val="80737955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83331889"/>
+        <c:crossAx val="82480431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,7 +843,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -960,11 +960,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82199522"/>
-        <c:axId val="85813874"/>
+        <c:axId val="61604282"/>
+        <c:axId val="6714403"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82199522"/>
+        <c:axId val="61604282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +992,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85813874"/>
+        <c:crossAx val="6714403"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1000,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85813874"/>
+        <c:axId val="6714403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82199522"/>
+        <c:crossAx val="61604282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1085,7 +1085,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1219,11 +1219,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31923838"/>
-        <c:axId val="54502590"/>
+        <c:axId val="31439494"/>
+        <c:axId val="11028953"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31923838"/>
+        <c:axId val="31439494"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1251,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54502590"/>
+        <c:crossAx val="11028953"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54502590"/>
+        <c:axId val="11028953"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1296,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31923838"/>
+        <c:crossAx val="31439494"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1344,7 +1344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1478,11 +1478,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="23965998"/>
-        <c:axId val="39878345"/>
+        <c:axId val="39420471"/>
+        <c:axId val="7178814"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23965998"/>
+        <c:axId val="39420471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1510,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39878345"/>
+        <c:crossAx val="7178814"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1518,7 +1518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39878345"/>
+        <c:axId val="7178814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23965998"/>
+        <c:crossAx val="39420471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1603,7 +1603,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2273,11 +2273,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="47496285"/>
-        <c:axId val="53124567"/>
+        <c:axId val="43888198"/>
+        <c:axId val="42277868"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47496285"/>
+        <c:axId val="43888198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2305,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53124567"/>
+        <c:crossAx val="42277868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2313,7 +2313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53124567"/>
+        <c:axId val="42277868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2350,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47496285"/>
+        <c:crossAx val="43888198"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,7 +2566,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B2:B12 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2643,7 +2643,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="B2:B12 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2952,8 +2952,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3056,7 +3056,7 @@
       <c r="J3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="2" t="n">
         <v>16</v>
       </c>
     </row>

--- a/loss.xlsx
+++ b/loss.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VGG" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="CNN" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Inception" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="InceptionRed" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="NN" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Comp" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t xml:space="preserve">run0</t>
   </si>
@@ -86,6 +88,45 @@
   </si>
   <si>
     <t xml:space="preserve">channel_inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run0_bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run2_bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run3_bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiddens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1081 1081 1081 1081 1081 1081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900 720 540 360 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InceptionRed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN(WINF)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +229,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,10 +247,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,7 +322,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -718,11 +755,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82480431"/>
-        <c:axId val="80737955"/>
+        <c:axId val="76528912"/>
+        <c:axId val="72532010"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82480431"/>
+        <c:axId val="76528912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +787,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80737955"/>
+        <c:crossAx val="72532010"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80737955"/>
+        <c:axId val="72532010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +832,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82480431"/>
+        <c:crossAx val="76528912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,7 +880,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -960,11 +997,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61604282"/>
-        <c:axId val="6714403"/>
+        <c:axId val="76658464"/>
+        <c:axId val="69344035"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61604282"/>
+        <c:axId val="76658464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1029,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6714403"/>
+        <c:crossAx val="69344035"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1000,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6714403"/>
+        <c:axId val="69344035"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61604282"/>
+        <c:crossAx val="76658464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1085,7 +1122,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1131,6 +1168,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1219,11 +1257,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31439494"/>
-        <c:axId val="11028953"/>
+        <c:axId val="39928481"/>
+        <c:axId val="57517082"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31439494"/>
+        <c:axId val="39928481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1289,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11028953"/>
+        <c:crossAx val="57517082"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11028953"/>
+        <c:axId val="57517082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +1312,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1296,7 +1334,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31439494"/>
+        <c:crossAx val="39928481"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,14 +1375,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1390,6 +1428,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1478,11 +1517,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39420471"/>
-        <c:axId val="7178814"/>
+        <c:axId val="88693006"/>
+        <c:axId val="14620160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39420471"/>
+        <c:axId val="88693006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7178814"/>
+        <c:crossAx val="14620160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1518,7 +1557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7178814"/>
+        <c:axId val="14620160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1572,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1555,7 +1594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39420471"/>
+        <c:crossAx val="88693006"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,14 +1635,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1649,6 +1688,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1722,6 +1762,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1795,6 +1836,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1868,6 +1910,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1941,6 +1984,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2014,6 +2058,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2087,6 +2132,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2160,6 +2206,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2233,6 +2280,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2273,11 +2321,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43888198"/>
-        <c:axId val="42277868"/>
+        <c:axId val="32184061"/>
+        <c:axId val="74824222"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43888198"/>
+        <c:axId val="32184061"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2353,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42277868"/>
+        <c:crossAx val="74824222"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2313,7 +2361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42277868"/>
+        <c:axId val="74824222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2376,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2350,7 +2398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43888198"/>
+        <c:crossAx val="32184061"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2391,7 +2439,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2409,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2419,8 +2467,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="934200" y="2005920"/>
-        <a:ext cx="5776560" cy="3238920"/>
+        <a:off x="935280" y="2005920"/>
+        <a:ext cx="5785560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2439,9 +2487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>450000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2449,8 +2497,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6922440" y="2034720"/>
-        <a:ext cx="5776920" cy="3238920"/>
+        <a:off x="6932880" y="2034720"/>
+        <a:ext cx="5785200" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2474,9 +2522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2485,7 +2533,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2369520"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2504,9 +2552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2514,8 +2562,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5715720" y="2484360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5724720" y="2484360"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2534,9 +2582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2545,7 +2593,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="5888520"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2566,10 +2614,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B2:B12 C7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -2643,10 +2691,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B2:B12"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.96"/>
   </cols>
@@ -2723,10 +2771,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="B2:B12 C3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
@@ -2952,17 +3000,17 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3319,4 +3367,189 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>526.852096123535</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>512.40203029834</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>523.015600486328</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>514.203709271484</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>521.21174980957</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>520.620173058594</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>522.7862</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>517.6675</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>511.1333</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>512.4873</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>512.40203029834</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>520.620173058594</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>